--- a/data/agg_matrix.xlsx
+++ b/data/agg_matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sector_ref" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -98,13 +98,25 @@
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">BRICS</t>
+    <t xml:space="preserve">BRIS</t>
   </si>
   <si>
     <t xml:space="preserve">Other_OECD</t>
   </si>
   <si>
     <t xml:space="preserve">RoW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
@@ -284,13 +296,7 @@
     <t xml:space="preserve">JP</t>
   </si>
   <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
     <t xml:space="preserve">CN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
   </si>
   <si>
     <t xml:space="preserve">CA</t>
@@ -406,7 +412,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -453,6 +459,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -586,7 +600,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -699,6 +713,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,8 +820,898 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"><sheetNames><sheetName val="info"/><sheetName val="pxp"/><sheetName val="basic"/><sheetName val="basicWconst"/><sheetName val="theses"/><sheetName val="thesesWconst"/><sheetName val="Visions"/><sheetName val="VisionsWconst"/></sheetNames><sheetDataSet><sheetData sheetId="0"></sheetData><sheetData sheetId="1"><row r="2"><cell r="B2" t="str"><v>Agriculture</v></cell><cell r="C2" t="str"><v>Primary_Crops</v></cell><cell r="D2" t="str"><v>Paddy rice</v></cell></row><row r="3"><cell r="B3" t="str"><v>Agriculture</v></cell><cell r="C3" t="str"><v>Primary_Crops</v></cell><cell r="D3" t="str"><v>Wheat</v></cell></row><row r="4"><cell r="B4" t="str"><v>Agriculture</v></cell><cell r="C4" t="str"><v>Primary_Crops</v></cell><cell r="D4" t="str"><v>Cereal grains nec</v></cell></row><row r="5"><cell r="B5" t="str"><v>Agriculture</v></cell><cell r="C5" t="str"><v>Primary_Crops</v></cell><cell r="D5" t="str"><v>Vegetables, fruit, nuts</v></cell></row><row r="6"><cell r="B6" t="str"><v>Agriculture</v></cell><cell r="C6" t="str"><v>Primary_Crops</v></cell><cell r="D6" t="str"><v>Oil seeds</v></cell></row><row r="7"><cell r="B7" t="str"><v>Agriculture</v></cell><cell r="C7" t="str"><v>Primary_Crops</v></cell><cell r="D7" t="str"><v>Sugar cane, sugar beet</v></cell></row><row r="8"><cell r="B8" t="str"><v>Agriculture</v></cell><cell r="C8" t="str"><v>Primary_Crops</v></cell><cell r="D8" t="str"><v>Plant-based fibers</v></cell></row><row r="9"><cell r="B9" t="str"><v>Agriculture</v></cell><cell r="C9" t="str"><v>Primary_Crops</v></cell><cell r="D9" t="str"><v>Crops nec</v></cell></row><row r="10"><cell r="B10" t="str"><v>Agriculture</v></cell><cell r="C10" t="str"><v>Farm_animals</v></cell><cell r="D10" t="str"><v>Cattle</v></cell></row><row r="11"><cell r="B11" t="str"><v>Agriculture</v></cell><cell r="C11" t="str"><v>Farm_animals</v></cell><cell r="D11" t="str"><v>Pigs</v></cell></row><row r="12"><cell r="B12" t="str"><v>Agriculture</v></cell><cell r="C12" t="str"><v>Farm_animals</v></cell><cell r="D12" t="str"><v>Poultry</v></cell></row><row r="13"><cell r="B13" t="str"><v>Agriculture</v></cell><cell r="C13" t="str"><v>Farm_animals</v></cell><cell r="D13" t="str"><v>Meat animals nec</v></cell></row><row r="14"><cell r="B14" t="str"><v>Agriculture</v></cell><cell r="C14" t="str"><v>Farm_animals</v></cell><cell r="D14" t="str"><v>Animal products nec</v></cell></row><row r="15"><cell r="B15" t="str"><v>Agriculture</v></cell><cell r="C15" t="str"><v>Farm_animals</v></cell><cell r="D15" t="str"><v>Raw milk</v></cell></row><row r="16"><cell r="B16" t="str"><v>Agriculture</v></cell><cell r="C16" t="str"><v>Farm_animals</v></cell><cell r="D16" t="str"><v>Wool, silk-worm cocoons</v></cell></row><row r="17"><cell r="B17" t="str"><v>Agriculture</v></cell><cell r="C17" t="str"><v>Farm_animals</v></cell><cell r="D17" t="str"><v>Manure (conventional treatment)</v></cell></row><row r="18"><cell r="B18" t="str"><v>Agriculture</v></cell><cell r="C18" t="str"><v>Farm_animals</v></cell><cell r="D18" t="str"><v>Manure (biogas treatment)</v></cell></row><row r="19"><cell r="B19" t="str"><v>Agriculture</v></cell><cell r="C19" t="str"><v>Forestry</v></cell><cell r="D19" t="str"><v>Products of forestry, logging and related services (02)</v></cell></row><row r="20"><cell r="B20" t="str"><v>Agriculture</v></cell><cell r="C20" t="str"><v>Fishing</v></cell><cell r="D20" t="str"><v>Fish and other fishing products; services incidental of fishing (05)</v></cell></row><row r="21"><cell r="B21" t="str"><v>Extractive_industry</v></cell><cell r="C21" t="str"><v>Fossil_fuels</v></cell><cell r="D21" t="str"><v>Anthracite</v></cell></row><row r="22"><cell r="B22" t="str"><v>Extractive_industry</v></cell><cell r="C22" t="str"><v>Fossil_fuels</v></cell><cell r="D22" t="str"><v>Coking Coal</v></cell></row><row r="23"><cell r="B23" t="str"><v>Extractive_industry</v></cell><cell r="C23" t="str"><v>Fossil_fuels</v></cell><cell r="D23" t="str"><v>Other Bituminous Coal</v></cell></row><row r="24"><cell r="B24" t="str"><v>Extractive_industry</v></cell><cell r="C24" t="str"><v>Fossil_fuels</v></cell><cell r="D24" t="str"><v>Sub-Bituminous Coal</v></cell></row><row r="25"><cell r="B25" t="str"><v>Extractive_industry</v></cell><cell r="C25" t="str"><v>Fossil_fuels</v></cell><cell r="D25" t="str"><v>Patent Fuel</v></cell></row><row r="26"><cell r="B26" t="str"><v>Extractive_industry</v></cell><cell r="C26" t="str"><v>Fossil_fuels</v></cell><cell r="D26" t="str"><v>Lignite/Brown Coal</v></cell></row><row r="27"><cell r="B27" t="str"><v>Extractive_industry</v></cell><cell r="C27" t="str"><v>Fossil_fuels</v></cell><cell r="D27" t="str"><v>BKB/Peat Briquettes</v></cell></row><row r="28"><cell r="B28" t="str"><v>Extractive_industry</v></cell><cell r="C28" t="str"><v>Fossil_fuels</v></cell><cell r="D28" t="str"><v>Peat</v></cell></row><row r="29"><cell r="B29" t="str"><v>Extractive_industry</v></cell><cell r="C29" t="str"><v>Fossil_fuels</v></cell><cell r="D29" t="str"><v>Crude petroleum and services related to crude oil extraction, excluding surveying</v></cell></row><row r="30"><cell r="B30" t="str"><v>Extractive_industry</v></cell><cell r="C30" t="str"><v>Fossil_fuels</v></cell><cell r="D30" t="str"><v>Natural gas and services related to natural gas extraction, excluding surveying</v></cell></row><row r="31"><cell r="B31" t="str"><v>Extractive_industry</v></cell><cell r="C31" t="str"><v>Fossil_fuels</v></cell><cell r="D31" t="str"><v>Natural Gas Liquids</v></cell></row><row r="32"><cell r="B32" t="str"><v>Extractive_industry</v></cell><cell r="C32" t="str"><v>Fossil_fuels</v></cell><cell r="D32" t="str"><v>Other Hydrocarbons</v></cell></row><row r="33"><cell r="B33" t="str"><v>Extractive_industry</v></cell><cell r="C33" t="str"><v>Metal_ores</v></cell><cell r="D33" t="str"><v>Uranium and thorium ores (12)</v></cell></row><row r="34"><cell r="B34" t="str"><v>Extractive_industry</v></cell><cell r="C34" t="str"><v>Metal_ores</v></cell><cell r="D34" t="str"><v>Iron ores</v></cell></row><row r="35"><cell r="B35" t="str"><v>Extractive_industry</v></cell><cell r="C35" t="str"><v>Metal_ores</v></cell><cell r="D35" t="str"><v>Copper ores and concentrates</v></cell></row><row r="36"><cell r="B36" t="str"><v>Extractive_industry</v></cell><cell r="C36" t="str"><v>Metal_ores</v></cell><cell r="D36" t="str"><v>Nickel ores and concentrates</v></cell></row><row r="37"><cell r="B37" t="str"><v>Extractive_industry</v></cell><cell r="C37" t="str"><v>Metal_ores</v></cell><cell r="D37" t="str"><v>Aluminium ores and concentrates</v></cell></row><row r="38"><cell r="B38" t="str"><v>Extractive_industry</v></cell><cell r="C38" t="str"><v>Metal_ores</v></cell><cell r="D38" t="str"><v>Precious metal ores and concentrates</v></cell></row><row r="39"><cell r="B39" t="str"><v>Extractive_industry</v></cell><cell r="C39" t="str"><v>Metal_ores</v></cell><cell r="D39" t="str"><v>Lead, zinc and tin ores and concentrates</v></cell></row><row r="40"><cell r="B40" t="str"><v>Extractive_industry</v></cell><cell r="C40" t="str"><v>Metal_ores</v></cell><cell r="D40" t="str"><v>Other non-ferrous metal ores and concentrates</v></cell></row><row r="41"><cell r="B41" t="str"><v>Extractive_industry</v></cell><cell r="C41" t="str"><v>NonMetallic_Minerals</v></cell><cell r="D41" t="str"><v>Stone</v></cell></row><row r="42"><cell r="B42" t="str"><v>Extractive_industry</v></cell><cell r="C42" t="str"><v>NonMetallic_Minerals</v></cell><cell r="D42" t="str"><v>Sand and clay</v></cell></row><row r="43"><cell r="B43" t="str"><v>Extractive_industry</v></cell><cell r="C43" t="str"><v>NonMetallic_Minerals</v></cell><cell r="D43" t="str"><v>Chemical and fertilizer minerals, salt and other mining and quarrying products n.e.c.</v></cell></row><row r="44"><cell r="B44" t="str"><v>Manufacturing_industry</v></cell><cell r="C44" t="str"><v>Food_industry</v></cell><cell r="D44" t="str"><v>Products of meat cattle</v></cell></row><row r="45"><cell r="B45" t="str"><v>Manufacturing_industry</v></cell><cell r="C45" t="str"><v>Food_industry</v></cell><cell r="D45" t="str"><v>Products of meat pigs</v></cell></row><row r="46"><cell r="B46" t="str"><v>Manufacturing_industry</v></cell><cell r="C46" t="str"><v>Food_industry</v></cell><cell r="D46" t="str"><v>Products of meat poultry</v></cell></row><row r="47"><cell r="B47" t="str"><v>Manufacturing_industry</v></cell><cell r="C47" t="str"><v>Food_industry</v></cell><cell r="D47" t="str"><v>Meat products nec</v></cell></row><row r="48"><cell r="B48" t="str"><v>Manufacturing_industry</v></cell><cell r="C48" t="str"><v>Food_industry</v></cell><cell r="D48" t="str"><v>products of Vegetable oils and fats</v></cell></row><row r="49"><cell r="B49" t="str"><v>Manufacturing_industry</v></cell><cell r="C49" t="str"><v>Food_industry</v></cell><cell r="D49" t="str"><v>Dairy products</v></cell></row><row r="50"><cell r="B50" t="str"><v>Manufacturing_industry</v></cell><cell r="C50" t="str"><v>Food_industry</v></cell><cell r="D50" t="str"><v>Processed rice</v></cell></row><row r="51"><cell r="B51" t="str"><v>Manufacturing_industry</v></cell><cell r="C51" t="str"><v>Food_industry</v></cell><cell r="D51" t="str"><v>Sugar</v></cell></row><row r="52"><cell r="B52" t="str"><v>Manufacturing_industry</v></cell><cell r="C52" t="str"><v>Food_industry</v></cell><cell r="D52" t="str"><v>Food products nec</v></cell></row><row r="53"><cell r="B53" t="str"><v>Manufacturing_industry</v></cell><cell r="C53" t="str"><v>Food_industry</v></cell><cell r="D53" t="str"><v>Beverages</v></cell></row><row r="54"><cell r="B54" t="str"><v>Manufacturing_industry</v></cell><cell r="C54" t="str"><v>Food_industry</v></cell><cell r="D54" t="str"><v>Fish products</v></cell></row><row r="55"><cell r="B55" t="str"><v>Manufacturing_industry</v></cell><cell r="C55" t="str"><v>Food_industry</v></cell><cell r="D55" t="str"><v>Tobacco products (16)</v></cell></row><row r="56"><cell r="B56" t="str"><v>Manufacturing_industry</v></cell><cell r="C56" t="str"><v>Clothing_industry</v></cell><cell r="D56" t="str"><v>Textiles (17)</v></cell></row><row r="57"><cell r="B57" t="str"><v>Manufacturing_industry</v></cell><cell r="C57" t="str"><v>Clothing_industry</v></cell><cell r="D57" t="str"><v>Wearing apparel; furs (18)</v></cell></row><row r="58"><cell r="B58" t="str"><v>Manufacturing_industry</v></cell><cell r="C58" t="str"><v>Clothing_industry</v></cell><cell r="D58" t="str"><v>Leather and leather products (19)</v></cell></row><row r="59"><cell r="B59" t="str"><v>Manufacturing_industry</v></cell><cell r="C59" t="str"><v>Primary_materials</v></cell><cell r="D59" t="str"><v>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</v></cell></row><row r="60"><cell r="B60" t="str"><v>Manufacturing_industry</v></cell><cell r="C60" t="str"><v>Secondary_materials</v></cell><cell r="D60" t="str"><v>Wood material for treatment, Re-processing of secondary wood material into new wood material</v></cell></row><row r="61"><cell r="B61" t="str"><v>Manufacturing_industry</v></cell><cell r="C61" t="str"><v>Primary_materials</v></cell><cell r="D61" t="str"><v>Pulp</v></cell></row><row r="62"><cell r="B62" t="str"><v>Manufacturing_industry</v></cell><cell r="C62" t="str"><v>Secondary_materials</v></cell><cell r="D62" t="str"><v>Secondary paper for treatment, Re-processing of secondary paper into new pulp</v></cell></row><row r="63"><cell r="B63" t="str"><v>Manufacturing_industry</v></cell><cell r="C63" t="str"><v>Materials</v></cell><cell r="D63" t="str"><v>Paper and paper products</v></cell></row><row r="64"><cell r="B64" t="str"><v>Manufacturing_industry</v></cell><cell r="C64" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D64" t="str"><v>Printed matter and recorded media (22)</v></cell></row><row r="65"><cell r="B65" t="str"><v>Energy_industry</v></cell><cell r="C65" t="str"><v>Coal</v></cell><cell r="D65" t="str"><v>Coke Oven Coke</v></cell></row><row r="66"><cell r="B66" t="str"><v>Energy_industry</v></cell><cell r="C66" t="str"><v>Coal</v></cell><cell r="D66" t="str"><v>Gas Coke</v></cell></row><row r="67"><cell r="B67" t="str"><v>Energy_industry</v></cell><cell r="C67" t="str"><v>Coal</v></cell><cell r="D67" t="str"><v>Coal Tar</v></cell></row><row r="68"><cell r="B68" t="str"><v>Energy_industry</v></cell><cell r="C68" t="str"><v>Motor_fuels</v></cell><cell r="D68" t="str"><v>Motor Gasoline</v></cell></row><row r="69"><cell r="B69" t="str"><v>Energy_industry</v></cell><cell r="C69" t="str"><v>Motor_fuels</v></cell><cell r="D69" t="str"><v>Aviation Gasoline</v></cell></row><row r="70"><cell r="B70" t="str"><v>Energy_industry</v></cell><cell r="C70" t="str"><v>Motor_fuels</v></cell><cell r="D70" t="str"><v>Gasoline Type Jet Fuel</v></cell></row><row r="71"><cell r="B71" t="str"><v>Energy_industry</v></cell><cell r="C71" t="str"><v>Motor_fuels</v></cell><cell r="D71" t="str"><v>Kerosene Type Jet Fuel</v></cell></row><row r="72"><cell r="B72" t="str"><v>Energy_industry</v></cell><cell r="C72" t="str"><v>Motor_fuels</v></cell><cell r="D72" t="str"><v>Kerosene</v></cell></row><row r="73"><cell r="B73" t="str"><v>Energy_industry</v></cell><cell r="C73" t="str"><v>Motor_fuels</v></cell><cell r="D73" t="str"><v>Gas/Diesel Oil</v></cell></row><row r="74"><cell r="B74" t="str"><v>Energy_industry</v></cell><cell r="C74" t="str"><v>Other_fuels</v></cell><cell r="D74" t="str"><v>Heavy Fuel Oil</v></cell></row><row r="75"><cell r="B75" t="str"><v>Energy_industry</v></cell><cell r="C75" t="str"><v>Other_fuels</v></cell><cell r="D75" t="str"><v>Refinery Gas</v></cell></row><row r="76"><cell r="B76" t="str"><v>Energy_industry</v></cell><cell r="C76" t="str"><v>Motor_fuels</v></cell><cell r="D76" t="str"><v>Liquefied Petroleum Gases (LPG)</v></cell></row><row r="77"><cell r="B77" t="str"><v>Energy_industry</v></cell><cell r="C77" t="str"><v>Other_fuels</v></cell><cell r="D77" t="str"><v>Refinery Feedstocks</v></cell></row><row r="78"><cell r="B78" t="str"><v>Energy_industry</v></cell><cell r="C78" t="str"><v>Other_fuels</v></cell><cell r="D78" t="str"><v>Ethane</v></cell></row><row r="79"><cell r="B79" t="str"><v>Energy_industry</v></cell><cell r="C79" t="str"><v>Other_fuels</v></cell><cell r="D79" t="str"><v>Naphtha</v></cell></row><row r="80"><cell r="B80" t="str"><v>Energy_industry</v></cell><cell r="C80" t="str"><v>Other_fuels</v></cell><cell r="D80" t="str"><v>White Spirit & SBP</v></cell></row><row r="81"><cell r="B81" t="str"><v>Energy_industry</v></cell><cell r="C81" t="str"><v>Other_fuels</v></cell><cell r="D81" t="str"><v>Lubricants</v></cell></row><row r="82"><cell r="B82" t="str"><v>Energy_industry</v></cell><cell r="C82" t="str"><v>Other_fuels</v></cell><cell r="D82" t="str"><v>Bitumen</v></cell></row><row r="83"><cell r="B83" t="str"><v>Energy_industry</v></cell><cell r="C83" t="str"><v>Other_fuels</v></cell><cell r="D83" t="str"><v>Paraffin Waxes</v></cell></row><row r="84"><cell r="B84" t="str"><v>Energy_industry</v></cell><cell r="C84" t="str"><v>Other_fuels</v></cell><cell r="D84" t="str"><v>Petroleum Coke</v></cell></row><row r="85"><cell r="B85" t="str"><v>Energy_industry</v></cell><cell r="C85" t="str"><v>Other_fuels</v></cell><cell r="D85" t="str"><v>Non-specified Petroleum Products</v></cell></row><row r="86"><cell r="B86" t="str"><v>Energy_industry</v></cell><cell r="C86" t="str"><v>Nuclear_fuel</v></cell><cell r="D86" t="str"><v>Nuclear fuel</v></cell></row><row r="87"><cell r="B87" t="str"><v>Manufacturing_industry</v></cell><cell r="C87" t="str"><v>Primary_materials</v></cell><cell r="D87" t="str"><v>Plastics, basic</v></cell></row><row r="88"><cell r="B88" t="str"><v>Manufacturing_industry</v></cell><cell r="C88" t="str"><v>Secondary_materials</v></cell><cell r="D88" t="str"><v>Secondary plastic for treatment, Re-processing of secondary plastic into new plastic</v></cell></row><row r="89"><cell r="B89" t="str"><v>Manufacturing_industry</v></cell><cell r="C89" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D89" t="str"><v>N-fertiliser</v></cell></row><row r="90"><cell r="B90" t="str"><v>Manufacturing_industry</v></cell><cell r="C90" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D90" t="str"><v>P- and other fertiliser</v></cell></row><row r="91"><cell r="B91" t="str"><v>Manufacturing_industry</v></cell><cell r="C91" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D91" t="str"><v>Chemicals nec</v></cell></row><row r="92"><cell r="B92" t="str"><v>Energy_industry</v></cell><cell r="C92" t="str"><v>Bioenergy</v></cell><cell r="D92" t="str"><v>Charcoal</v></cell></row><row r="93"><cell r="B93" t="str"><v>Energy_industry</v></cell><cell r="C93" t="str"><v>Other_fuels</v></cell><cell r="D93" t="str"><v>Additives/Blending Components</v></cell></row><row r="94"><cell r="B94" t="str"><v>Energy_industry</v></cell><cell r="C94" t="str"><v>Bioenergy</v></cell><cell r="D94" t="str"><v>Biogasoline</v></cell></row><row r="95"><cell r="B95" t="str"><v>Energy_industry</v></cell><cell r="C95" t="str"><v>Bioenergy</v></cell><cell r="D95" t="str"><v>Biodiesels</v></cell></row><row r="96"><cell r="B96" t="str"><v>Energy_industry</v></cell><cell r="C96" t="str"><v>Bioenergy</v></cell><cell r="D96" t="str"><v>Other Liquid Biofuels</v></cell></row><row r="97"><cell r="B97" t="str"><v>Manufacturing_industry</v></cell><cell r="C97" t="str"><v>Materials</v></cell><cell r="D97" t="str"><v>Rubber and plastic products (25)</v></cell></row><row r="98"><cell r="B98" t="str"><v>Manufacturing_industry</v></cell><cell r="C98" t="str"><v>Primary_materials</v></cell><cell r="D98" t="str"><v>Glass and glass products</v></cell></row><row r="99"><cell r="B99" t="str"><v>Manufacturing_industry</v></cell><cell r="C99" t="str"><v>Secondary_materials</v></cell><cell r="D99" t="str"><v>Secondary glass for treatment, Re-processing of secondary glass into new glass</v></cell></row><row r="100"><cell r="B100" t="str"><v>Manufacturing_industry</v></cell><cell r="C100" t="str"><v>Materials</v></cell><cell r="D100" t="str"><v>Ceramic goods</v></cell></row><row r="101"><cell r="B101" t="str"><v>Manufacturing_industry</v></cell><cell r="C101" t="str"><v>Materials</v></cell><cell r="D101" t="str"><v>Bricks, tiles and construction products, in baked clay</v></cell></row><row r="102"><cell r="B102" t="str"><v>Manufacturing_industry</v></cell><cell r="C102" t="str"><v>Primary_materials</v></cell><cell r="D102" t="str"><v>Cement, lime and plaster</v></cell></row><row r="103"><cell r="B103" t="str"><v>Manufacturing_industry</v></cell><cell r="C103" t="str"><v>Secondary_materials</v></cell><cell r="D103" t="str"><v>Ash for treatment, Re-processing of ash into clinker</v></cell></row><row r="104"><cell r="B104" t="str"><v>Manufacturing_industry</v></cell><cell r="C104" t="str"><v>Materials</v></cell><cell r="D104" t="str"><v>Other non-metallic mineral products</v></cell></row><row r="105"><cell r="B105" t="str"><v>Manufacturing_industry</v></cell><cell r="C105" t="str"><v>Primary_materials</v></cell><cell r="D105" t="str"><v>Basic iron and steel and of ferro-alloys and first products thereof</v></cell></row><row r="106"><cell r="B106" t="str"><v>Manufacturing_industry</v></cell><cell r="C106" t="str"><v>Secondary_materials</v></cell><cell r="D106" t="str"><v>Secondary steel for treatment, Re-processing of secondary steel into new steel</v></cell></row><row r="107"><cell r="B107" t="str"><v>Manufacturing_industry</v></cell><cell r="C107" t="str"><v>Primary_materials</v></cell><cell r="D107" t="str"><v>Precious metals</v></cell></row><row r="108"><cell r="B108" t="str"><v>Manufacturing_industry</v></cell><cell r="C108" t="str"><v>Secondary_materials</v></cell><cell r="D108" t="str"><v>Secondary preciuos metals for treatment, Re-processing of secondary preciuos metals into new preciuos metals</v></cell></row><row r="109"><cell r="B109" t="str"><v>Manufacturing_industry</v></cell><cell r="C109" t="str"><v>Primary_materials</v></cell><cell r="D109" t="str"><v>Aluminium and aluminium products</v></cell></row><row r="110"><cell r="B110" t="str"><v>Manufacturing_industry</v></cell><cell r="C110" t="str"><v>Secondary_materials</v></cell><cell r="D110" t="str"><v>Secondary aluminium for treatment, Re-processing of secondary aluminium into new aluminium</v></cell></row><row r="111"><cell r="B111" t="str"><v>Manufacturing_industry</v></cell><cell r="C111" t="str"><v>Primary_materials</v></cell><cell r="D111" t="str"><v>Lead, zinc and tin and products thereof</v></cell></row><row r="112"><cell r="B112" t="str"><v>Manufacturing_industry</v></cell><cell r="C112" t="str"><v>Secondary_materials</v></cell><cell r="D112" t="str"><v>Secondary lead for treatment, Re-processing of secondary lead into new lead</v></cell></row><row r="113"><cell r="B113" t="str"><v>Manufacturing_industry</v></cell><cell r="C113" t="str"><v>Primary_materials</v></cell><cell r="D113" t="str"><v>Copper products</v></cell></row><row r="114"><cell r="B114" t="str"><v>Manufacturing_industry</v></cell><cell r="C114" t="str"><v>Secondary_materials</v></cell><cell r="D114" t="str"><v>Secondary copper for treatment, Re-processing of secondary copper into new copper</v></cell></row><row r="115"><cell r="B115" t="str"><v>Manufacturing_industry</v></cell><cell r="C115" t="str"><v>Primary_materials</v></cell><cell r="D115" t="str"><v>Other non-ferrous metal products</v></cell></row><row r="116"><cell r="B116" t="str"><v>Manufacturing_industry</v></cell><cell r="C116" t="str"><v>Secondary_materials</v></cell><cell r="D116" t="str"><v>Secondary other non-ferrous metals for treatment, Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</v></cell></row><row r="117"><cell r="B117" t="str"><v>Manufacturing_industry</v></cell><cell r="C117" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D117" t="str"><v>Foundry work services</v></cell></row><row r="118"><cell r="B118" t="str"><v>Manufacturing_industry</v></cell><cell r="C118" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D118" t="str"><v>Fabricated metal products, except machinery and equipment (28)</v></cell></row><row r="119"><cell r="B119" t="str"><v>Manufacturing_industry</v></cell><cell r="C119" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D119" t="str"><v>Machinery and equipment n.e.c. (29)</v></cell></row><row r="120"><cell r="B120" t="str"><v>Manufacturing_industry</v></cell><cell r="C120" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D120" t="str"><v>Office machinery and computers (30)</v></cell></row><row r="121"><cell r="B121" t="str"><v>Manufacturing_industry</v></cell><cell r="C121" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D121" t="str"><v>Electrical machinery and apparatus n.e.c. (31)</v></cell></row><row r="122"><cell r="B122" t="str"><v>Manufacturing_industry</v></cell><cell r="C122" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D122" t="str"><v>Radio, television and communication equipment and apparatus (32)</v></cell></row><row r="123"><cell r="B123" t="str"><v>Manufacturing_industry</v></cell><cell r="C123" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D123" t="str"><v>Medical, precision and optical instruments, watches and clocks (33)</v></cell></row><row r="124"><cell r="B124" t="str"><v>Manufacturing_industry</v></cell><cell r="C124" t="str"><v>Transport_equipment</v></cell><cell r="D124" t="str"><v>Motor vehicles, trailers and semi-trailers (34)</v></cell></row><row r="125"><cell r="B125" t="str"><v>Manufacturing_industry</v></cell><cell r="C125" t="str"><v>Transport_equipment</v></cell><cell r="D125" t="str"><v>Other transport equipment (35)</v></cell></row><row r="126"><cell r="B126" t="str"><v>Manufacturing_industry</v></cell><cell r="C126" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D126" t="str"><v>Furniture; other manufactured goods n.e.c. (36)</v></cell></row><row r="127"><cell r="B127" t="str"><v>Manufacturing_industry</v></cell><cell r="C127" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D127" t="str"><v>Secondary raw materials</v></cell></row><row r="128"><cell r="B128" t="str"><v>Manufacturing_industry</v></cell><cell r="C128" t="str"><v>Other_manufacturing_industry</v></cell><cell r="D128" t="str"><v>Bottles for treatment, Recycling of bottles by direct reuse</v></cell></row><row r="129"><cell r="B129" t="str"><v>Energy_industry</v></cell><cell r="C129" t="str"><v>Electricity</v></cell><cell r="D129" t="str"><v>Electricity by coal</v></cell></row><row r="130"><cell r="B130" t="str"><v>Energy_industry</v></cell><cell r="C130" t="str"><v>Electricity</v></cell><cell r="D130" t="str"><v>Electricity by gas</v></cell></row><row r="131"><cell r="B131" t="str"><v>Energy_industry</v></cell><cell r="C131" t="str"><v>Electricity</v></cell><cell r="D131" t="str"><v>Electricity by nuclear</v></cell></row><row r="132"><cell r="B132" t="str"><v>Energy_industry</v></cell><cell r="C132" t="str"><v>Electricity</v></cell><cell r="D132" t="str"><v>Electricity by hydro</v></cell></row><row r="133"><cell r="B133" t="str"><v>Energy_industry</v></cell><cell r="C133" t="str"><v>Electricity</v></cell><cell r="D133" t="str"><v>Electricity by wind</v></cell></row><row r="134"><cell r="B134" t="str"><v>Energy_industry</v></cell><cell r="C134" t="str"><v>Electricity</v></cell><cell r="D134" t="str"><v>Electricity by petroleum and other oil derivatives</v></cell></row><row r="135"><cell r="B135" t="str"><v>Energy_industry</v></cell><cell r="C135" t="str"><v>Electricity</v></cell><cell r="D135" t="str"><v>Electricity by biomass and waste</v></cell></row><row r="136"><cell r="B136" t="str"><v>Energy_industry</v></cell><cell r="C136" t="str"><v>Electricity</v></cell><cell r="D136" t="str"><v>Electricity by solar photovoltaic</v></cell></row><row r="137"><cell r="B137" t="str"><v>Energy_industry</v></cell><cell r="C137" t="str"><v>Electricity</v></cell><cell r="D137" t="str"><v>Electricity by solar thermal</v></cell></row><row r="138"><cell r="B138" t="str"><v>Energy_industry</v></cell><cell r="C138" t="str"><v>Electricity</v></cell><cell r="D138" t="str"><v>Electricity by tide, wave, ocean</v></cell></row><row r="139"><cell r="B139" t="str"><v>Energy_industry</v></cell><cell r="C139" t="str"><v>Electricity</v></cell><cell r="D139" t="str"><v>Electricity by Geothermal</v></cell></row><row r="140"><cell r="B140" t="str"><v>Energy_industry</v></cell><cell r="C140" t="str"><v>Electricity</v></cell><cell r="D140" t="str"><v>Electricity nec</v></cell></row><row r="141"><cell r="B141" t="str"><v>Energy_industry</v></cell><cell r="C141" t="str"><v>Energy_Services</v></cell><cell r="D141" t="str"><v>Transmission services of electricity</v></cell></row><row r="142"><cell r="B142" t="str"><v>Energy_industry</v></cell><cell r="C142" t="str"><v>Energy_Services</v></cell><cell r="D142" t="str"><v>Distribution and trade services of electricity</v></cell></row><row r="143"><cell r="B143" t="str"><v>Energy_industry</v></cell><cell r="C143" t="str"><v>Gas</v></cell><cell r="D143" t="str"><v>Coke oven gas</v></cell></row><row r="144"><cell r="B144" t="str"><v>Energy_industry</v></cell><cell r="C144" t="str"><v>Gas</v></cell><cell r="D144" t="str"><v>Blast Furnace Gas</v></cell></row><row r="145"><cell r="B145" t="str"><v>Energy_industry</v></cell><cell r="C145" t="str"><v>Gas</v></cell><cell r="D145" t="str"><v>Oxygen Steel Furnace Gas</v></cell></row><row r="146"><cell r="B146" t="str"><v>Energy_industry</v></cell><cell r="C146" t="str"><v>Gas</v></cell><cell r="D146" t="str"><v>Gas Works Gas</v></cell></row><row r="147"><cell r="B147" t="str"><v>Energy_industry</v></cell><cell r="C147" t="str"><v>Bioenergy</v></cell><cell r="D147" t="str"><v>Biogas</v></cell></row><row r="148"><cell r="B148" t="str"><v>Energy_industry</v></cell><cell r="C148" t="str"><v>Energy_Services</v></cell><cell r="D148" t="str"><v>Distribution services of gaseous fuels through mains</v></cell></row><row r="149"><cell r="B149" t="str"><v>Energy_industry</v></cell><cell r="C149" t="str"><v>Heat</v></cell><cell r="D149" t="str"><v>Steam and hot water supply services</v></cell></row><row r="150"><cell r="B150" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C150" t="str"><v>Water_services</v></cell><cell r="D150" t="str"><v>Collected and purified water, distribution services of water (41)</v></cell></row><row r="151"><cell r="B151" t="str"><v>Manufacturing_industry</v></cell><cell r="C151" t="str"><v>Primary_materials</v></cell><cell r="D151" t="str"><v>Construction work (45)</v></cell></row><row r="152"><cell r="B152" t="str"><v>Manufacturing_industry</v></cell><cell r="C152" t="str"><v>Secondary_materials</v></cell><cell r="D152" t="str"><v>Secondary construction material for treatment, Re-processing of secondary construction material into aggregates</v></cell></row><row r="153"><cell r="B153" t="str"><v>Oth_services</v></cell><cell r="C153" t="str"><v>Business_services</v></cell><cell r="D153" t="str"><v>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</v></cell></row><row r="154"><cell r="B154" t="str"><v>Oth_services</v></cell><cell r="C154" t="str"><v>Trade_services</v></cell><cell r="D154" t="str"><v>Retail trade services of motor fuel</v></cell></row><row r="155"><cell r="B155" t="str"><v>Oth_services</v></cell><cell r="C155" t="str"><v>Trade_services</v></cell><cell r="D155" t="str"><v>Wholesale trade and commission trade services, except of motor vehicles and motorcycles (51)</v></cell></row><row r="156"><cell r="B156" t="str"><v>Oth_services</v></cell><cell r="C156" t="str"><v>Trade_services</v></cell><cell r="D156" t="str"><v>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</v></cell></row><row r="157"><cell r="B157" t="str"><v>Oth_services</v></cell><cell r="C157" t="str"><v>Business_services</v></cell><cell r="D157" t="str"><v>Hotel and restaurant services (55)</v></cell></row><row r="158"><cell r="B158" t="str"><v>Transports</v></cell><cell r="C158" t="str"><v>Land_transport</v></cell><cell r="D158" t="str"><v>Railway transportation services</v></cell></row><row r="159"><cell r="B159" t="str"><v>Transports</v></cell><cell r="C159" t="str"><v>Land_transport</v></cell><cell r="D159" t="str"><v>Other land transportation services</v></cell></row><row r="160"><cell r="B160" t="str"><v>Transports</v></cell><cell r="C160" t="str"><v>Land_transport</v></cell><cell r="D160" t="str"><v>Transportation services via pipelines</v></cell></row><row r="161"><cell r="B161" t="str"><v>Transports</v></cell><cell r="C161" t="str"><v>Water_transport</v></cell><cell r="D161" t="str"><v>Sea and coastal water transportation services</v></cell></row><row r="162"><cell r="B162" t="str"><v>Transports</v></cell><cell r="C162" t="str"><v>Water_transport</v></cell><cell r="D162" t="str"><v>Inland water transportation services</v></cell></row><row r="163"><cell r="B163" t="str"><v>Transports</v></cell><cell r="C163" t="str"><v>Air_transport</v></cell><cell r="D163" t="str"><v>Air transport services (62)</v></cell></row><row r="164"><cell r="B164" t="str"><v>Oth_services</v></cell><cell r="C164" t="str"><v>Business_services</v></cell><cell r="D164" t="str"><v>Supporting and auxiliary transport services; travel agency services (63)</v></cell></row><row r="165"><cell r="B165" t="str"><v>Oth_services</v></cell><cell r="C165" t="str"><v>Business_services</v></cell><cell r="D165" t="str"><v>Post and telecommunication services (64)</v></cell></row><row r="166"><cell r="B166" t="str"><v>Oth_services</v></cell><cell r="C166" t="str"><v>Business_services</v></cell><cell r="D166" t="str"><v>Financial intermediation services, except insurance and pension funding services (65)</v></cell></row><row r="167"><cell r="B167" t="str"><v>Oth_services</v></cell><cell r="C167" t="str"><v>Business_services</v></cell><cell r="D167" t="str"><v>Insurance and pension funding services, except compulsory social security services (66)</v></cell></row><row r="168"><cell r="B168" t="str"><v>Oth_services</v></cell><cell r="C168" t="str"><v>Business_services</v></cell><cell r="D168" t="str"><v>Services auxiliary to financial intermediation (67)</v></cell></row><row r="169"><cell r="B169" t="str"><v>Oth_services</v></cell><cell r="C169" t="str"><v>Business_services</v></cell><cell r="D169" t="str"><v>Real estate services (70)</v></cell></row><row r="170"><cell r="B170" t="str"><v>Oth_services</v></cell><cell r="C170" t="str"><v>Business_services</v></cell><cell r="D170" t="str"><v>Renting services of machinery and equipment without operator and of personal and household goods (71)</v></cell></row><row r="171"><cell r="B171" t="str"><v>Oth_services</v></cell><cell r="C171" t="str"><v>Business_services</v></cell><cell r="D171" t="str"><v>Computer and related services (72)</v></cell></row><row r="172"><cell r="B172" t="str"><v>Oth_services</v></cell><cell r="C172" t="str"><v>Business_services</v></cell><cell r="D172" t="str"><v>Research and development services (73)</v></cell></row><row r="173"><cell r="B173" t="str"><v>Oth_services</v></cell><cell r="C173" t="str"><v>Business_services</v></cell><cell r="D173" t="str"><v>Other business services (74)</v></cell></row><row r="174"><cell r="B174" t="str"><v>Oth_services</v></cell><cell r="C174" t="str"><v>Public_services</v></cell><cell r="D174" t="str"><v>Public administration and defence services; compulsory social security services (75)</v></cell></row><row r="175"><cell r="B175" t="str"><v>Oth_services</v></cell><cell r="C175" t="str"><v>Public_services</v></cell><cell r="D175" t="str"><v>Education services (80)</v></cell></row><row r="176"><cell r="B176" t="str"><v>Oth_services</v></cell><cell r="C176" t="str"><v>Public_services</v></cell><cell r="D176" t="str"><v>Health and social work services (85)</v></cell></row><row r="177"><cell r="B177" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C177" t="str"><v>Incineration</v></cell><cell r="D177" t="str"><v>Food waste for treatment: incineration</v></cell></row><row r="178"><cell r="B178" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C178" t="str"><v>Incineration</v></cell><cell r="D178" t="str"><v>Paper waste for treatment: incineration</v></cell></row><row r="179"><cell r="B179" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C179" t="str"><v>Incineration</v></cell><cell r="D179" t="str"><v>Plastic waste for treatment: incineration</v></cell></row><row r="180"><cell r="B180" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C180" t="str"><v>Incineration</v></cell><cell r="D180" t="str"><v>Intert/metal waste for treatment: incineration</v></cell></row><row r="181"><cell r="B181" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C181" t="str"><v>Incineration</v></cell><cell r="D181" t="str"><v>Textiles waste for treatment: incineration</v></cell></row><row r="182"><cell r="B182" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C182" t="str"><v>Incineration</v></cell><cell r="D182" t="str"><v>Wood waste for treatment: incineration</v></cell></row><row r="183"><cell r="B183" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C183" t="str"><v>Incineration</v></cell><cell r="D183" t="str"><v>Oil/hazardous waste for treatment: incineration</v></cell></row><row r="184"><cell r="B184" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C184" t="str"><v>Land_application</v></cell><cell r="D184" t="str"><v>Food waste for treatment: biogasification and land application</v></cell></row><row r="185"><cell r="B185" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C185" t="str"><v>Land_application</v></cell><cell r="D185" t="str"><v>Paper waste for treatment: biogasification and land application</v></cell></row><row r="186"><cell r="B186" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C186" t="str"><v>Land_application</v></cell><cell r="D186" t="str"><v>Sewage sludge for treatment: biogasification and land application</v></cell></row><row r="187"><cell r="B187" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C187" t="str"><v>Land_application</v></cell><cell r="D187" t="str"><v>Food waste for treatment: composting and land application</v></cell></row><row r="188"><cell r="B188" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C188" t="str"><v>Land_application</v></cell><cell r="D188" t="str"><v>Paper and wood waste for treatment: composting and land application</v></cell></row><row r="189"><cell r="B189" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C189" t="str"><v>Other_waste_treatment</v></cell><cell r="D189" t="str"><v>Food waste for treatment: waste water treatment</v></cell></row><row r="190"><cell r="B190" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C190" t="str"><v>Other_waste_treatment</v></cell><cell r="D190" t="str"><v>Other waste for treatment: waste water treatment</v></cell></row><row r="191"><cell r="B191" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C191" t="str"><v>Landfill</v></cell><cell r="D191" t="str"><v>Food waste for treatment: landfill</v></cell></row><row r="192"><cell r="B192" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C192" t="str"><v>Landfill</v></cell><cell r="D192" t="str"><v>Paper for treatment: landfill</v></cell></row><row r="193"><cell r="B193" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C193" t="str"><v>Landfill</v></cell><cell r="D193" t="str"><v>Plastic waste for treatment: landfill</v></cell></row><row r="194"><cell r="B194" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C194" t="str"><v>Landfill</v></cell><cell r="D194" t="str"><v>Inert/metal/hazardous waste for treatment: landfill</v></cell></row><row r="195"><cell r="B195" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C195" t="str"><v>Landfill</v></cell><cell r="D195" t="str"><v>Textiles waste for treatment: landfill</v></cell></row><row r="196"><cell r="B196" t="str"><v>Water_and_waste_treatment</v></cell><cell r="C196" t="str"><v>Landfill</v></cell><cell r="D196" t="str"><v>Wood waste for treatment: landfill</v></cell></row><row r="197"><cell r="B197" t="str"><v>Oth_services</v></cell><cell r="C197" t="str"><v>Business_services</v></cell><cell r="D197" t="str"><v>Membership organisation services n.e.c. (91)</v></cell></row><row r="198"><cell r="B198" t="str"><v>Oth_services</v></cell><cell r="C198" t="str"><v>Business_services</v></cell><cell r="D198" t="str"><v>Recreational, cultural and sporting services (92)</v></cell></row><row r="199"><cell r="B199" t="str"><v>Oth_services</v></cell><cell r="C199" t="str"><v>Business_services</v></cell><cell r="D199" t="str"><v>Other services (93)</v></cell></row><row r="200"><cell r="B200" t="str"><v>Oth_services</v></cell><cell r="C200" t="str"><v>Business_services</v></cell><cell r="D200" t="str"><v>Private households with employed persons (95)</v></cell></row><row r="201"><cell r="B201" t="str"><v>Oth_services</v></cell><cell r="C201" t="str"><v>Business_services</v></cell><cell r="D201" t="str"><v>Extra-territorial organizations and bodies</v></cell></row></sheetData><sheetData sheetId="2"></sheetData><sheetData sheetId="3"></sheetData><sheetData sheetId="4"></sheetData><sheetData sheetId="5"></sheetData><sheetData sheetId="6"></sheetData><sheetData sheetId="7"></sheetData></sheetDataSet></externalBook></externalLink>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="info"/>
+      <sheetName val="pxp"/>
+      <sheetName val="basic"/>
+      <sheetName val="basicWconst"/>
+      <sheetName val="theses"/>
+      <sheetName val="thesesWconst"/>
+      <sheetName val="Visions"/>
+      <sheetName val="VisionsWconst"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Paddy rice</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Wheat</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Cereal grains nec</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>Vegetables, fruit, nuts</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>Oil seeds</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Sugar cane, sugar beet</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Plant-based fibers</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Primary_Crops</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Crops nec</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Cattle</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Pigs</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Poultry</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Meat animals nec</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Animal products nec</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Raw milk</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Wool, silk-worm cocoons</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Manure (conventional treatment)</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Farm_animals</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Manure (biogas treatment)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Forestry</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Products of forestry, logging and related services (02)</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Agriculture</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Fishing</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Fish and other fishing products; services incidental of fishing (05)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Anthracite</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Coking Coal</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Other Bituminous Coal</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Sub-Bituminous Coal</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Patent Fuel</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Lignite/Brown Coal</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>BKB/Peat Briquettes</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Peat</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Crude petroleum and services related to crude oil extraction, excluding surveying</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Natural gas and services related to natural gas extraction, excluding surveying</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Natural Gas Liquids</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Fossil_fuels</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Other Hydrocarbons</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Uranium and thorium ores (12)</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Iron ores</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>Copper ores and concentrates</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>Nickel ores and concentrates</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Aluminium ores and concentrates</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>Precious metal ores and concentrates</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Lead, zinc and tin ores and concentrates</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Metal_ores</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Other non-ferrous metal ores and concentrates</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>NonMetallic_Minerals</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Stone</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>NonMetallic_Minerals</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Sand and clay</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Extractive_industry</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>NonMetallic_Minerals</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Chemical and fertilizer minerals, salt and other mining and quarrying products n.e.c.</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>Products of meat cattle</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>Products of meat pigs</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>Products of meat poultry</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>Meat products nec</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>products of Vegetable oils and fats</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>Dairy products</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Processed rice</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>Sugar</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>Food products nec</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>Beverages</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>Fish products</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Food_industry</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>Tobacco products (16)</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Clothing_industry</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>Textiles (17)</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Clothing_industry</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>Wearing apparel; furs (18)</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Clothing_industry</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>Leather and leather products (19)</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Primary_materials</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Secondary_materials</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>Wood material for treatment, Re-processing of secondary wood material into new wood material</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Primary_materials</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>Pulp</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Secondary_materials</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>Secondary paper for treatment, Re-processing of secondary paper into new pulp</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Materials</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>Paper and paper products</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Manufacturing_industry</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Other_manufacturing_industry</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>Printed matter and recorded media (22)</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Coal</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>Coke Oven Coke</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Coal</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>Gas Coke</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Coal</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>Coal Tar</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Motor_fuels</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>Motor Gasoline</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Motor_fuels</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>Aviation Gasoline</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Motor_fuels</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>Gasoline Type Jet Fuel</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>Motor_fuels</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>Kerosene Type Jet Fuel</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Motor_fuels</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>Kerosene</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Motor_fuels</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>Gas/Diesel Oil</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Other_fuels</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>Heavy Fuel Oil</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Other_fuels</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>Refinery Gas</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Motor_fuels</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>Liquefied Petroleum Gases (LPG)</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Other_fuels</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>Refinery Feedstocks</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Other_fuels</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>Ethane</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Other_fuels</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>Naphtha</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Energy_industry</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Other_fuels</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,15 +1721,15 @@
   </sheetPr>
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D180" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="T201" activeCellId="0" sqref="T201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5729,8 +6637,8 @@
       <c r="B80" s="14" t="str">
         <v>Other_fuels</v>
       </c>
-      <c r="C80" s="15" t="str">
-        <v>White Spirit &amp; SBP</v>
+      <c r="C80" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D80" s="16" t="n">
         <v>0</v>
@@ -5785,14 +6693,14 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B81" s="14" t="str">
-        <v>Other_fuels</v>
-      </c>
-      <c r="C81" s="15" t="str">
-        <v>Lubricants</v>
+      <c r="A81" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D81" s="16" t="n">
         <v>0</v>
@@ -5847,14 +6755,14 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B82" s="14" t="str">
-        <v>Other_fuels</v>
-      </c>
-      <c r="C82" s="15" t="str">
-        <v>Bitumen</v>
+      <c r="A82" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D82" s="16" t="n">
         <v>0</v>
@@ -5909,14 +6817,14 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B83" s="14" t="str">
-        <v>Other_fuels</v>
-      </c>
-      <c r="C83" s="15" t="str">
-        <v>Paraffin Waxes</v>
+      <c r="A83" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D83" s="16" t="n">
         <v>0</v>
@@ -5971,14 +6879,14 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B84" s="14" t="str">
-        <v>Other_fuels</v>
-      </c>
-      <c r="C84" s="15" t="str">
-        <v>Petroleum Coke</v>
+      <c r="A84" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D84" s="16" t="n">
         <v>0</v>
@@ -6033,14 +6941,14 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B85" s="14" t="str">
-        <v>Other_fuels</v>
-      </c>
-      <c r="C85" s="15" t="str">
-        <v>Non-specified Petroleum Products</v>
+      <c r="A85" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D85" s="16" t="n">
         <v>0</v>
@@ -6095,14 +7003,14 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B86" s="14" t="str">
-        <v>Nuclear_fuel</v>
-      </c>
-      <c r="C86" s="15" t="str">
-        <v>Nuclear fuel</v>
+      <c r="A86" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D86" s="16" t="n">
         <v>0</v>
@@ -6157,14 +7065,14 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B87" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C87" s="15" t="str">
-        <v>Plastics, basic</v>
+      <c r="A87" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D87" s="16" t="n">
         <v>0</v>
@@ -6219,14 +7127,14 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B88" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C88" s="15" t="str">
-        <v>Secondary plastic for treatment, Re-processing of secondary plastic into new plastic</v>
+      <c r="A88" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D88" s="16" t="n">
         <v>0</v>
@@ -6281,14 +7189,14 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B89" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C89" s="15" t="str">
-        <v>N-fertiliser</v>
+      <c r="A89" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D89" s="16" t="n">
         <v>0</v>
@@ -6343,14 +7251,14 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B90" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C90" s="15" t="str">
-        <v>P- and other fertiliser</v>
+      <c r="A90" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D90" s="16" t="n">
         <v>0</v>
@@ -6405,14 +7313,14 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B91" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C91" s="15" t="str">
-        <v>Chemicals nec</v>
+      <c r="A91" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D91" s="16" t="n">
         <v>0</v>
@@ -6467,14 +7375,14 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B92" s="14" t="str">
-        <v>Bioenergy</v>
-      </c>
-      <c r="C92" s="15" t="str">
-        <v>Charcoal</v>
+      <c r="A92" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D92" s="16" t="n">
         <v>0</v>
@@ -6529,14 +7437,14 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B93" s="14" t="str">
-        <v>Other_fuels</v>
-      </c>
-      <c r="C93" s="15" t="str">
-        <v>Additives/Blending Components</v>
+      <c r="A93" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D93" s="16" t="n">
         <v>0</v>
@@ -6591,14 +7499,14 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B94" s="14" t="str">
-        <v>Bioenergy</v>
-      </c>
-      <c r="C94" s="15" t="str">
-        <v>Biogasoline</v>
+      <c r="A94" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D94" s="16" t="n">
         <v>0</v>
@@ -6653,14 +7561,14 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B95" s="14" t="str">
-        <v>Bioenergy</v>
-      </c>
-      <c r="C95" s="15" t="str">
-        <v>Biodiesels</v>
+      <c r="A95" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D95" s="16" t="n">
         <v>0</v>
@@ -6715,14 +7623,14 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B96" s="14" t="str">
-        <v>Bioenergy</v>
-      </c>
-      <c r="C96" s="15" t="str">
-        <v>Other Liquid Biofuels</v>
+      <c r="A96" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D96" s="16" t="n">
         <v>0</v>
@@ -6777,14 +7685,14 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B97" s="14" t="str">
-        <v>Materials</v>
-      </c>
-      <c r="C97" s="15" t="str">
-        <v>Rubber and plastic products (25)</v>
+      <c r="A97" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D97" s="16" t="n">
         <v>0</v>
@@ -6839,14 +7747,14 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B98" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C98" s="15" t="str">
-        <v>Glass and glass products</v>
+      <c r="A98" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D98" s="16" t="n">
         <v>0</v>
@@ -6901,14 +7809,14 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B99" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C99" s="15" t="str">
-        <v>Secondary glass for treatment, Re-processing of secondary glass into new glass</v>
+      <c r="A99" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D99" s="16" t="n">
         <v>0</v>
@@ -6963,14 +7871,14 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B100" s="14" t="str">
-        <v>Materials</v>
-      </c>
-      <c r="C100" s="15" t="str">
-        <v>Ceramic goods</v>
+      <c r="A100" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D100" s="16" t="n">
         <v>0</v>
@@ -7025,14 +7933,14 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B101" s="14" t="str">
-        <v>Materials</v>
-      </c>
-      <c r="C101" s="15" t="str">
-        <v>Bricks, tiles and construction products, in baked clay</v>
+      <c r="A101" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D101" s="16" t="n">
         <v>0</v>
@@ -7087,14 +7995,14 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B102" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C102" s="15" t="str">
-        <v>Cement, lime and plaster</v>
+      <c r="A102" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D102" s="16" t="n">
         <v>0</v>
@@ -7149,14 +8057,14 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B103" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C103" s="15" t="str">
-        <v>Ash for treatment, Re-processing of ash into clinker</v>
+      <c r="A103" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D103" s="16" t="n">
         <v>0</v>
@@ -7211,14 +8119,14 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B104" s="14" t="str">
-        <v>Materials</v>
-      </c>
-      <c r="C104" s="15" t="str">
-        <v>Other non-metallic mineral products</v>
+      <c r="A104" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D104" s="16" t="n">
         <v>0</v>
@@ -7273,14 +8181,14 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B105" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C105" s="15" t="str">
-        <v>Basic iron and steel and of ferro-alloys and first products thereof</v>
+      <c r="A105" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D105" s="16" t="n">
         <v>0</v>
@@ -7335,14 +8243,14 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B106" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C106" s="15" t="str">
-        <v>Secondary steel for treatment, Re-processing of secondary steel into new steel</v>
+      <c r="A106" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D106" s="16" t="n">
         <v>0</v>
@@ -7397,14 +8305,14 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B107" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C107" s="15" t="str">
-        <v>Precious metals</v>
+      <c r="A107" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D107" s="16" t="n">
         <v>0</v>
@@ -7459,14 +8367,14 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B108" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C108" s="15" t="str">
-        <v>Secondary preciuos metals for treatment, Re-processing of secondary preciuos metals into new preciuos metals</v>
+      <c r="A108" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D108" s="16" t="n">
         <v>0</v>
@@ -7521,14 +8429,14 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B109" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C109" s="15" t="str">
-        <v>Aluminium and aluminium products</v>
+      <c r="A109" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D109" s="16" t="n">
         <v>0</v>
@@ -7583,14 +8491,14 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B110" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C110" s="15" t="str">
-        <v>Secondary aluminium for treatment, Re-processing of secondary aluminium into new aluminium</v>
+      <c r="A110" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D110" s="16" t="n">
         <v>0</v>
@@ -7645,14 +8553,14 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B111" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C111" s="15" t="str">
-        <v>Lead, zinc and tin and products thereof</v>
+      <c r="A111" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D111" s="16" t="n">
         <v>0</v>
@@ -7707,14 +8615,14 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B112" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C112" s="15" t="str">
-        <v>Secondary lead for treatment, Re-processing of secondary lead into new lead</v>
+      <c r="A112" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D112" s="16" t="n">
         <v>0</v>
@@ -7769,14 +8677,14 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B113" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C113" s="15" t="str">
-        <v>Copper products</v>
+      <c r="A113" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B113" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D113" s="16" t="n">
         <v>0</v>
@@ -7831,14 +8739,14 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B114" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C114" s="15" t="str">
-        <v>Secondary copper for treatment, Re-processing of secondary copper into new copper</v>
+      <c r="A114" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B114" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D114" s="16" t="n">
         <v>0</v>
@@ -7893,14 +8801,14 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B115" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C115" s="15" t="str">
-        <v>Other non-ferrous metal products</v>
+      <c r="A115" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D115" s="16" t="n">
         <v>0</v>
@@ -7955,14 +8863,14 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B116" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C116" s="15" t="str">
-        <v>Secondary other non-ferrous metals for treatment, Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</v>
+      <c r="A116" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D116" s="16" t="n">
         <v>0</v>
@@ -8017,14 +8925,14 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B117" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C117" s="15" t="str">
-        <v>Foundry work services</v>
+      <c r="A117" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D117" s="16" t="n">
         <v>0</v>
@@ -8079,14 +8987,14 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B118" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C118" s="15" t="str">
-        <v>Fabricated metal products, except machinery and equipment (28)</v>
+      <c r="A118" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D118" s="16" t="n">
         <v>0</v>
@@ -8141,14 +9049,14 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B119" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C119" s="15" t="str">
-        <v>Machinery and equipment n.e.c. (29)</v>
+      <c r="A119" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D119" s="16" t="n">
         <v>0</v>
@@ -8203,14 +9111,14 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B120" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C120" s="15" t="str">
-        <v>Office machinery and computers (30)</v>
+      <c r="A120" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D120" s="16" t="n">
         <v>0</v>
@@ -8265,14 +9173,14 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B121" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C121" s="15" t="str">
-        <v>Electrical machinery and apparatus n.e.c. (31)</v>
+      <c r="A121" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D121" s="16" t="n">
         <v>0</v>
@@ -8327,14 +9235,14 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B122" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C122" s="15" t="str">
-        <v>Radio, television and communication equipment and apparatus (32)</v>
+      <c r="A122" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D122" s="16" t="n">
         <v>0</v>
@@ -8389,14 +9297,14 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B123" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C123" s="15" t="str">
-        <v>Medical, precision and optical instruments, watches and clocks (33)</v>
+      <c r="A123" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D123" s="16" t="n">
         <v>0</v>
@@ -8451,14 +9359,14 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B124" s="14" t="str">
-        <v>Transport_equipment</v>
-      </c>
-      <c r="C124" s="15" t="str">
-        <v>Motor vehicles, trailers and semi-trailers (34)</v>
+      <c r="A124" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D124" s="16" t="n">
         <v>0</v>
@@ -8513,14 +9421,14 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B125" s="14" t="str">
-        <v>Transport_equipment</v>
-      </c>
-      <c r="C125" s="15" t="str">
-        <v>Other transport equipment (35)</v>
+      <c r="A125" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D125" s="16" t="n">
         <v>0</v>
@@ -8575,14 +9483,14 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B126" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C126" s="15" t="str">
-        <v>Furniture; other manufactured goods n.e.c. (36)</v>
+      <c r="A126" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D126" s="16" t="n">
         <v>0</v>
@@ -8637,14 +9545,14 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B127" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C127" s="15" t="str">
-        <v>Secondary raw materials</v>
+      <c r="A127" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D127" s="16" t="n">
         <v>0</v>
@@ -8699,14 +9607,14 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B128" s="14" t="str">
-        <v>Other_manufacturing_industry</v>
-      </c>
-      <c r="C128" s="15" t="str">
-        <v>Bottles for treatment, Recycling of bottles by direct reuse</v>
+      <c r="A128" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D128" s="16" t="n">
         <v>0</v>
@@ -8761,14 +9669,14 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B129" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C129" s="15" t="str">
-        <v>Electricity by coal</v>
+      <c r="A129" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D129" s="16" t="n">
         <v>0</v>
@@ -8823,14 +9731,14 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B130" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C130" s="15" t="str">
-        <v>Electricity by gas</v>
+      <c r="A130" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D130" s="16" t="n">
         <v>0</v>
@@ -8885,14 +9793,14 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B131" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C131" s="15" t="str">
-        <v>Electricity by nuclear</v>
+      <c r="A131" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D131" s="16" t="n">
         <v>0</v>
@@ -8947,14 +9855,14 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B132" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C132" s="15" t="str">
-        <v>Electricity by hydro</v>
+      <c r="A132" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D132" s="16" t="n">
         <v>0</v>
@@ -9009,14 +9917,14 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B133" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C133" s="15" t="str">
-        <v>Electricity by wind</v>
+      <c r="A133" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D133" s="16" t="n">
         <v>0</v>
@@ -9071,14 +9979,14 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B134" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C134" s="15" t="str">
-        <v>Electricity by petroleum and other oil derivatives</v>
+      <c r="A134" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D134" s="16" t="n">
         <v>0</v>
@@ -9133,14 +10041,14 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B135" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C135" s="15" t="str">
-        <v>Electricity by biomass and waste</v>
+      <c r="A135" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D135" s="16" t="n">
         <v>0</v>
@@ -9195,14 +10103,14 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B136" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C136" s="15" t="str">
-        <v>Electricity by solar photovoltaic</v>
+      <c r="A136" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D136" s="16" t="n">
         <v>0</v>
@@ -9257,14 +10165,14 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B137" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C137" s="15" t="str">
-        <v>Electricity by solar thermal</v>
+      <c r="A137" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D137" s="16" t="n">
         <v>0</v>
@@ -9319,14 +10227,14 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B138" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C138" s="15" t="str">
-        <v>Electricity by tide, wave, ocean</v>
+      <c r="A138" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D138" s="16" t="n">
         <v>0</v>
@@ -9381,14 +10289,14 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B139" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C139" s="15" t="str">
-        <v>Electricity by Geothermal</v>
+      <c r="A139" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D139" s="16" t="n">
         <v>0</v>
@@ -9443,14 +10351,14 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B140" s="14" t="str">
-        <v>Electricity</v>
-      </c>
-      <c r="C140" s="15" t="str">
-        <v>Electricity nec</v>
+      <c r="A140" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D140" s="16" t="n">
         <v>0</v>
@@ -9505,14 +10413,14 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B141" s="14" t="str">
-        <v>Energy_Services</v>
-      </c>
-      <c r="C141" s="15" t="str">
-        <v>Transmission services of electricity</v>
+      <c r="A141" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D141" s="16" t="n">
         <v>0</v>
@@ -9567,14 +10475,14 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B142" s="14" t="str">
-        <v>Energy_Services</v>
-      </c>
-      <c r="C142" s="15" t="str">
-        <v>Distribution and trade services of electricity</v>
+      <c r="A142" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D142" s="16" t="n">
         <v>0</v>
@@ -9629,14 +10537,14 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B143" s="14" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="C143" s="15" t="str">
-        <v>Coke oven gas</v>
+      <c r="A143" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B143" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D143" s="16" t="n">
         <v>0</v>
@@ -9691,14 +10599,14 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B144" s="14" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="C144" s="15" t="str">
-        <v>Blast Furnace Gas</v>
+      <c r="A144" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D144" s="16" t="n">
         <v>0</v>
@@ -9753,14 +10661,14 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B145" s="14" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="C145" s="15" t="str">
-        <v>Oxygen Steel Furnace Gas</v>
+      <c r="A145" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B145" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D145" s="16" t="n">
         <v>0</v>
@@ -9815,14 +10723,14 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B146" s="14" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="C146" s="15" t="str">
-        <v>Gas Works Gas</v>
+      <c r="A146" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D146" s="16" t="n">
         <v>0</v>
@@ -9877,14 +10785,14 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B147" s="14" t="str">
-        <v>Bioenergy</v>
-      </c>
-      <c r="C147" s="15" t="str">
-        <v>Biogas</v>
+      <c r="A147" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D147" s="16" t="n">
         <v>0</v>
@@ -9939,14 +10847,14 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B148" s="14" t="str">
-        <v>Energy_Services</v>
-      </c>
-      <c r="C148" s="15" t="str">
-        <v>Distribution services of gaseous fuels through mains</v>
+      <c r="A148" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D148" s="16" t="n">
         <v>0</v>
@@ -10001,14 +10909,14 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="13" t="str">
-        <v>Energy_industry</v>
-      </c>
-      <c r="B149" s="14" t="str">
-        <v>Heat</v>
-      </c>
-      <c r="C149" s="15" t="str">
-        <v>Steam and hot water supply services</v>
+      <c r="A149" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D149" s="16" t="n">
         <v>0</v>
@@ -10063,14 +10971,14 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B150" s="14" t="str">
-        <v>Water_services</v>
-      </c>
-      <c r="C150" s="15" t="str">
-        <v>Collected and purified water, distribution services of water (41)</v>
+      <c r="A150" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D150" s="16" t="n">
         <v>0</v>
@@ -10125,14 +11033,14 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B151" s="14" t="str">
-        <v>Primary_materials</v>
-      </c>
-      <c r="C151" s="15" t="str">
-        <v>Construction work (45)</v>
+      <c r="A151" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D151" s="16" t="n">
         <v>0</v>
@@ -10187,14 +11095,14 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="13" t="str">
-        <v>Manufacturing_industry</v>
-      </c>
-      <c r="B152" s="14" t="str">
-        <v>Secondary_materials</v>
-      </c>
-      <c r="C152" s="15" t="str">
-        <v>Secondary construction material for treatment, Re-processing of secondary construction material into aggregates</v>
+      <c r="A152" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B152" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D152" s="16" t="n">
         <v>0</v>
@@ -10249,14 +11157,14 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B153" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C153" s="15" t="str">
-        <v>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</v>
+      <c r="A153" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D153" s="16" t="n">
         <v>0</v>
@@ -10311,14 +11219,14 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B154" s="14" t="str">
-        <v>Trade_services</v>
-      </c>
-      <c r="C154" s="15" t="str">
-        <v>Retail trade services of motor fuel</v>
+      <c r="A154" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B154" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D154" s="16" t="n">
         <v>0</v>
@@ -10373,14 +11281,14 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B155" s="14" t="str">
-        <v>Trade_services</v>
-      </c>
-      <c r="C155" s="15" t="str">
-        <v>Wholesale trade and commission trade services, except of motor vehicles and motorcycles (51)</v>
+      <c r="A155" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B155" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D155" s="16" t="n">
         <v>0</v>
@@ -10435,14 +11343,14 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B156" s="14" t="str">
-        <v>Trade_services</v>
-      </c>
-      <c r="C156" s="15" t="str">
-        <v>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</v>
+      <c r="A156" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D156" s="16" t="n">
         <v>0</v>
@@ -10497,14 +11405,14 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B157" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C157" s="15" t="str">
-        <v>Hotel and restaurant services (55)</v>
+      <c r="A157" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D157" s="16" t="n">
         <v>0</v>
@@ -10559,14 +11467,14 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="13" t="str">
-        <v>Transports</v>
-      </c>
-      <c r="B158" s="14" t="str">
-        <v>Land_transport</v>
-      </c>
-      <c r="C158" s="15" t="str">
-        <v>Railway transportation services</v>
+      <c r="A158" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B158" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D158" s="16" t="n">
         <v>0</v>
@@ -10621,14 +11529,14 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="13" t="str">
-        <v>Transports</v>
-      </c>
-      <c r="B159" s="14" t="str">
-        <v>Land_transport</v>
-      </c>
-      <c r="C159" s="15" t="str">
-        <v>Other land transportation services</v>
+      <c r="A159" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D159" s="16" t="n">
         <v>0</v>
@@ -10683,14 +11591,14 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="13" t="str">
-        <v>Transports</v>
-      </c>
-      <c r="B160" s="14" t="str">
-        <v>Land_transport</v>
-      </c>
-      <c r="C160" s="15" t="str">
-        <v>Transportation services via pipelines</v>
+      <c r="A160" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B160" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D160" s="16" t="n">
         <v>0</v>
@@ -10745,14 +11653,14 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="13" t="str">
-        <v>Transports</v>
-      </c>
-      <c r="B161" s="14" t="str">
-        <v>Water_transport</v>
-      </c>
-      <c r="C161" s="15" t="str">
-        <v>Sea and coastal water transportation services</v>
+      <c r="A161" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D161" s="16" t="n">
         <v>0</v>
@@ -10807,14 +11715,14 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="13" t="str">
-        <v>Transports</v>
-      </c>
-      <c r="B162" s="14" t="str">
-        <v>Water_transport</v>
-      </c>
-      <c r="C162" s="15" t="str">
-        <v>Inland water transportation services</v>
+      <c r="A162" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D162" s="16" t="n">
         <v>0</v>
@@ -10869,14 +11777,14 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="13" t="str">
-        <v>Transports</v>
-      </c>
-      <c r="B163" s="14" t="str">
-        <v>Air_transport</v>
-      </c>
-      <c r="C163" s="15" t="str">
-        <v>Air transport services (62)</v>
+      <c r="A163" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D163" s="16" t="n">
         <v>0</v>
@@ -10931,14 +11839,14 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B164" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C164" s="15" t="str">
-        <v>Supporting and auxiliary transport services; travel agency services (63)</v>
+      <c r="A164" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B164" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D164" s="16" t="n">
         <v>0</v>
@@ -10993,14 +11901,14 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B165" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C165" s="15" t="str">
-        <v>Post and telecommunication services (64)</v>
+      <c r="A165" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B165" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D165" s="16" t="n">
         <v>0</v>
@@ -11055,14 +11963,14 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B166" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C166" s="15" t="str">
-        <v>Financial intermediation services, except insurance and pension funding services (65)</v>
+      <c r="A166" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D166" s="16" t="n">
         <v>0</v>
@@ -11117,14 +12025,14 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B167" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C167" s="15" t="str">
-        <v>Insurance and pension funding services, except compulsory social security services (66)</v>
+      <c r="A167" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D167" s="16" t="n">
         <v>0</v>
@@ -11179,14 +12087,14 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B168" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C168" s="15" t="str">
-        <v>Services auxiliary to financial intermediation (67)</v>
+      <c r="A168" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D168" s="16" t="n">
         <v>0</v>
@@ -11241,14 +12149,14 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B169" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C169" s="15" t="str">
-        <v>Real estate services (70)</v>
+      <c r="A169" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D169" s="16" t="n">
         <v>0</v>
@@ -11303,14 +12211,14 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B170" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C170" s="15" t="str">
-        <v>Renting services of machinery and equipment without operator and of personal and household goods (71)</v>
+      <c r="A170" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D170" s="16" t="n">
         <v>0</v>
@@ -11365,14 +12273,14 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B171" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C171" s="15" t="str">
-        <v>Computer and related services (72)</v>
+      <c r="A171" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D171" s="16" t="n">
         <v>0</v>
@@ -11427,14 +12335,14 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B172" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C172" s="15" t="str">
-        <v>Research and development services (73)</v>
+      <c r="A172" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B172" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D172" s="16" t="n">
         <v>0</v>
@@ -11489,14 +12397,14 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B173" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C173" s="15" t="str">
-        <v>Other business services (74)</v>
+      <c r="A173" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D173" s="16" t="n">
         <v>0</v>
@@ -11551,14 +12459,14 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B174" s="14" t="str">
-        <v>Public_services</v>
-      </c>
-      <c r="C174" s="15" t="str">
-        <v>Public administration and defence services; compulsory social security services (75)</v>
+      <c r="A174" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D174" s="16" t="n">
         <v>0</v>
@@ -11613,14 +12521,14 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B175" s="14" t="str">
-        <v>Public_services</v>
-      </c>
-      <c r="C175" s="15" t="str">
-        <v>Education services (80)</v>
+      <c r="A175" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D175" s="16" t="n">
         <v>0</v>
@@ -11675,14 +12583,14 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B176" s="14" t="str">
-        <v>Public_services</v>
-      </c>
-      <c r="C176" s="15" t="str">
-        <v>Health and social work services (85)</v>
+      <c r="A176" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D176" s="16" t="n">
         <v>0</v>
@@ -11737,14 +12645,14 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B177" s="14" t="str">
-        <v>Incineration</v>
-      </c>
-      <c r="C177" s="15" t="str">
-        <v>Food waste for treatment: incineration</v>
+      <c r="A177" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D177" s="16" t="n">
         <v>0</v>
@@ -11799,14 +12707,14 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B178" s="14" t="str">
-        <v>Incineration</v>
-      </c>
-      <c r="C178" s="15" t="str">
-        <v>Paper waste for treatment: incineration</v>
+      <c r="A178" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D178" s="16" t="n">
         <v>0</v>
@@ -11861,14 +12769,14 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B179" s="14" t="str">
-        <v>Incineration</v>
-      </c>
-      <c r="C179" s="15" t="str">
-        <v>Plastic waste for treatment: incineration</v>
+      <c r="A179" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B179" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D179" s="16" t="n">
         <v>0</v>
@@ -11923,14 +12831,14 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B180" s="14" t="str">
-        <v>Incineration</v>
-      </c>
-      <c r="C180" s="15" t="str">
-        <v>Intert/metal waste for treatment: incineration</v>
+      <c r="A180" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B180" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D180" s="16" t="n">
         <v>0</v>
@@ -11985,14 +12893,14 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B181" s="14" t="str">
-        <v>Incineration</v>
-      </c>
-      <c r="C181" s="15" t="str">
-        <v>Textiles waste for treatment: incineration</v>
+      <c r="A181" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B181" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D181" s="16" t="n">
         <v>0</v>
@@ -12047,14 +12955,14 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B182" s="14" t="str">
-        <v>Incineration</v>
-      </c>
-      <c r="C182" s="15" t="str">
-        <v>Wood waste for treatment: incineration</v>
+      <c r="A182" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D182" s="16" t="n">
         <v>0</v>
@@ -12109,14 +13017,14 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B183" s="14" t="str">
-        <v>Incineration</v>
-      </c>
-      <c r="C183" s="15" t="str">
-        <v>Oil/hazardous waste for treatment: incineration</v>
+      <c r="A183" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B183" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D183" s="16" t="n">
         <v>0</v>
@@ -12171,14 +13079,14 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B184" s="14" t="str">
-        <v>Land_application</v>
-      </c>
-      <c r="C184" s="15" t="str">
-        <v>Food waste for treatment: biogasification and land application</v>
+      <c r="A184" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D184" s="16" t="n">
         <v>0</v>
@@ -12233,14 +13141,14 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B185" s="14" t="str">
-        <v>Land_application</v>
-      </c>
-      <c r="C185" s="15" t="str">
-        <v>Paper waste for treatment: biogasification and land application</v>
+      <c r="A185" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D185" s="16" t="n">
         <v>0</v>
@@ -12295,14 +13203,14 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B186" s="14" t="str">
-        <v>Land_application</v>
-      </c>
-      <c r="C186" s="15" t="str">
-        <v>Sewage sludge for treatment: biogasification and land application</v>
+      <c r="A186" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D186" s="16" t="n">
         <v>0</v>
@@ -12357,14 +13265,14 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B187" s="14" t="str">
-        <v>Land_application</v>
-      </c>
-      <c r="C187" s="15" t="str">
-        <v>Food waste for treatment: composting and land application</v>
+      <c r="A187" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B187" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D187" s="16" t="n">
         <v>0</v>
@@ -12419,14 +13327,14 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B188" s="14" t="str">
-        <v>Land_application</v>
-      </c>
-      <c r="C188" s="15" t="str">
-        <v>Paper and wood waste for treatment: composting and land application</v>
+      <c r="A188" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B188" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D188" s="16" t="n">
         <v>0</v>
@@ -12481,14 +13389,14 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B189" s="14" t="str">
-        <v>Other_waste_treatment</v>
-      </c>
-      <c r="C189" s="15" t="str">
-        <v>Food waste for treatment: waste water treatment</v>
+      <c r="A189" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B189" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D189" s="16" t="n">
         <v>0</v>
@@ -12543,14 +13451,14 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B190" s="14" t="str">
-        <v>Other_waste_treatment</v>
-      </c>
-      <c r="C190" s="15" t="str">
-        <v>Other waste for treatment: waste water treatment</v>
+      <c r="A190" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D190" s="16" t="n">
         <v>0</v>
@@ -12605,14 +13513,14 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B191" s="14" t="str">
-        <v>Landfill</v>
-      </c>
-      <c r="C191" s="15" t="str">
-        <v>Food waste for treatment: landfill</v>
+      <c r="A191" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B191" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D191" s="16" t="n">
         <v>0</v>
@@ -12667,14 +13575,14 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B192" s="14" t="str">
-        <v>Landfill</v>
-      </c>
-      <c r="C192" s="15" t="str">
-        <v>Paper for treatment: landfill</v>
+      <c r="A192" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B192" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D192" s="16" t="n">
         <v>0</v>
@@ -12729,14 +13637,14 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B193" s="14" t="str">
-        <v>Landfill</v>
-      </c>
-      <c r="C193" s="15" t="str">
-        <v>Plastic waste for treatment: landfill</v>
+      <c r="A193" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B193" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D193" s="16" t="n">
         <v>0</v>
@@ -12791,14 +13699,14 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B194" s="14" t="str">
-        <v>Landfill</v>
-      </c>
-      <c r="C194" s="15" t="str">
-        <v>Inert/metal/hazardous waste for treatment: landfill</v>
+      <c r="A194" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B194" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D194" s="16" t="n">
         <v>0</v>
@@ -12853,14 +13761,14 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B195" s="14" t="str">
-        <v>Landfill</v>
-      </c>
-      <c r="C195" s="15" t="str">
-        <v>Textiles waste for treatment: landfill</v>
+      <c r="A195" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B195" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D195" s="16" t="n">
         <v>0</v>
@@ -12915,14 +13823,14 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="13" t="str">
-        <v>Water_and_waste_treatment</v>
-      </c>
-      <c r="B196" s="14" t="str">
-        <v>Landfill</v>
-      </c>
-      <c r="C196" s="15" t="str">
-        <v>Wood waste for treatment: landfill</v>
+      <c r="A196" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D196" s="16" t="n">
         <v>0</v>
@@ -12977,14 +13885,14 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B197" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C197" s="15" t="str">
-        <v>Membership organisation services n.e.c. (91)</v>
+      <c r="A197" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B197" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D197" s="16" t="n">
         <v>0</v>
@@ -13039,14 +13947,14 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B198" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C198" s="15" t="str">
-        <v>Recreational, cultural and sporting services (92)</v>
+      <c r="A198" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B198" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D198" s="16" t="n">
         <v>0</v>
@@ -13101,14 +14009,14 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B199" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C199" s="15" t="str">
-        <v>Other services (93)</v>
+      <c r="A199" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B199" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D199" s="16" t="n">
         <v>0</v>
@@ -13163,14 +14071,14 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="13" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B200" s="14" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C200" s="15" t="str">
-        <v>Private households with employed persons (95)</v>
+      <c r="A200" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B200" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="D200" s="16" t="n">
         <v>0</v>
@@ -13225,14 +14133,14 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="20" t="str">
-        <v>Oth_services</v>
-      </c>
-      <c r="B201" s="21" t="str">
-        <v>Business_services</v>
-      </c>
-      <c r="C201" s="22" t="str">
-        <v>Extra-territorial organizations and bodies</v>
+      <c r="A201" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="D201" s="23" t="n">
         <v>0</v>
@@ -13299,7 +14207,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -13312,17 +14220,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -13332,7 +14240,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
@@ -13354,13 +14262,25 @@
       <c r="G1" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13377,13 +14297,25 @@
       <c r="G2" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -13400,13 +14332,25 @@
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -13423,13 +14367,25 @@
       <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -13446,13 +14402,25 @@
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -13469,13 +14437,25 @@
       <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -13492,13 +14472,25 @@
       <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -13515,13 +14507,25 @@
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -13538,13 +14542,25 @@
       <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -13561,13 +14577,25 @@
       <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -13584,10 +14612,22 @@
       <c r="G11" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>22</v>
@@ -13607,13 +14647,25 @@
       <c r="G12" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -13630,13 +14682,25 @@
       <c r="G13" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -13653,13 +14717,25 @@
       <c r="G14" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -13676,13 +14752,25 @@
       <c r="G15" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -13699,13 +14787,25 @@
       <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -13722,13 +14822,25 @@
       <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -13745,13 +14857,25 @@
       <c r="G18" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -13768,13 +14892,25 @@
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -13791,13 +14927,25 @@
       <c r="G20" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -13814,13 +14962,25 @@
       <c r="G21" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -13837,13 +14997,25 @@
       <c r="G22" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -13860,13 +15032,25 @@
       <c r="G23" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -13883,13 +15067,25 @@
       <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -13906,13 +15102,25 @@
       <c r="G25" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -13929,13 +15137,25 @@
       <c r="G26" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -13952,13 +15172,25 @@
       <c r="G27" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -13975,13 +15207,25 @@
       <c r="G28" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -13993,18 +15237,30 @@
         <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -14016,18 +15272,30 @@
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -14039,18 +15307,30 @@
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -14059,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
@@ -14067,13 +15347,25 @@
       <c r="G32" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -14085,18 +15377,30 @@
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -14113,13 +15417,25 @@
       <c r="G34" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -14136,13 +15452,25 @@
       <c r="G35" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -14159,13 +15487,25 @@
       <c r="G36" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -14182,13 +15522,25 @@
       <c r="G37" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -14205,13 +15557,25 @@
       <c r="G38" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -14228,13 +15592,25 @@
       <c r="G39" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -14251,13 +15627,25 @@
       <c r="G40" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -14274,13 +15662,25 @@
       <c r="G41" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -14297,13 +15697,25 @@
       <c r="G42" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -14320,13 +15732,25 @@
       <c r="G43" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -14343,13 +15767,25 @@
       <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -14366,13 +15802,25 @@
       <c r="G45" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -14389,13 +15837,25 @@
       <c r="G46" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -14412,13 +15872,25 @@
       <c r="G47" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -14435,13 +15907,25 @@
       <c r="G48" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -14458,13 +15942,25 @@
       <c r="G49" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -14480,12 +15976,24 @@
       </c>
       <c r="G50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/data/agg_matrix.xlsx
+++ b/data/agg_matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada</t>
+    <t xml:space="preserve">Suisse</t>
   </si>
   <si>
     <t xml:space="preserve">UK</t>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">CN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
   </si>
   <si>
     <t xml:space="preserve">CA</t>
@@ -1729,7 +1732,7 @@
       <selection pane="bottomRight" activeCell="T201" activeCellId="0" sqref="T201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14223,14 +14226,14 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -15362,10 +15365,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -15377,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>0</v>
@@ -15389,7 +15392,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>0</v>
@@ -15397,10 +15400,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -15432,10 +15435,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -15467,10 +15470,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -15502,10 +15505,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -15537,10 +15540,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -15572,10 +15575,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -15607,10 +15610,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -15634,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>0</v>
@@ -15642,10 +15645,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -15677,10 +15680,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -15712,10 +15715,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -15747,10 +15750,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -15782,10 +15785,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -15817,10 +15820,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -15852,10 +15855,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -15887,10 +15890,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -15922,10 +15925,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -15957,10 +15960,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>

--- a/data/agg_matrix.xlsx
+++ b/data/agg_matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -98,25 +98,13 @@
     <t xml:space="preserve">Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">BRIS</t>
+    <t xml:space="preserve">BRICS</t>
   </si>
   <si>
     <t xml:space="preserve">Other_OECD</t>
   </si>
   <si>
     <t xml:space="preserve">RoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
   </si>
   <si>
     <t xml:space="preserve">Austria</t>
@@ -296,6 +284,9 @@
     <t xml:space="preserve">JP</t>
   </si>
   <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
     <t xml:space="preserve">CN</t>
   </si>
   <si>
@@ -415,7 +406,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -462,14 +453,6 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -603,7 +586,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,10 +697,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1724,7 +1703,7 @@
   </sheetPr>
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -1732,7 +1711,7 @@
       <selection pane="bottomRight" activeCell="T201" activeCellId="0" sqref="T201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14223,17 +14202,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
@@ -14241,6 +14220,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="955" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14265,25 +14245,13 @@
       <c r="G1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -14298,27 +14266,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -14333,27 +14289,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -14368,27 +14312,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -14403,27 +14335,15 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14438,27 +14358,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14473,27 +14381,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -14508,27 +14404,15 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -14543,27 +14427,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -14578,27 +14450,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -14613,24 +14473,12 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>22</v>
@@ -14650,25 +14498,13 @@
       <c r="G12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -14683,27 +14519,15 @@
         <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -14718,27 +14542,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -14753,27 +14565,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -14788,27 +14588,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -14823,27 +14611,15 @@
         <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -14858,27 +14634,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -14893,27 +14657,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -14928,27 +14680,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -14963,27 +14703,15 @@
         <v>0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -14998,27 +14726,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -15033,27 +14749,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -15068,27 +14772,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -15103,27 +14795,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -15138,27 +14818,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -15173,27 +14841,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -15208,27 +14864,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -15240,30 +14884,18 @@
         <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -15275,30 +14907,18 @@
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -15310,30 +14930,18 @@
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -15342,33 +14950,21 @@
         <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -15383,27 +14979,15 @@
         <v>1</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -15418,27 +15002,15 @@
         <v>1</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -15453,27 +15025,15 @@
         <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -15488,27 +15048,15 @@
         <v>0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -15523,27 +15071,15 @@
         <v>1</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -15558,27 +15094,15 @@
         <v>0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -15593,27 +15117,15 @@
         <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -15628,27 +15140,15 @@
         <v>1</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -15663,27 +15163,15 @@
         <v>1</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -15699,26 +15187,14 @@
       </c>
       <c r="G42" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -15733,27 +15209,15 @@
         <v>1</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -15769,26 +15233,14 @@
       </c>
       <c r="G44" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -15803,27 +15255,15 @@
         <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -15839,26 +15279,14 @@
       </c>
       <c r="G46" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -15874,26 +15302,14 @@
       </c>
       <c r="G47" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -15909,26 +15325,14 @@
       </c>
       <c r="G48" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -15944,26 +15348,14 @@
       </c>
       <c r="G49" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -15979,18 +15371,6 @@
       </c>
       <c r="G50" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
